--- a/scripts_on_ubuntu/sync_swap_project/sync_swap_50.xlsx
+++ b/scripts_on_ubuntu/sync_swap_project/sync_swap_50.xlsx
@@ -771,7 +771,11 @@
         </is>
       </c>
       <c r="C23" s="8" t="n"/>
-      <c r="D23" s="8" t="n"/>
+      <c r="D23" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E23" s="8" t="n"/>
     </row>
     <row r="24" ht="20.25" customHeight="1" s="6">

--- a/scripts_on_ubuntu/sync_swap_project/sync_swap_50.xlsx
+++ b/scripts_on_ubuntu/sync_swap_project/sync_swap_50.xlsx
@@ -785,7 +785,11 @@
         </is>
       </c>
       <c r="C24" s="8" t="n"/>
-      <c r="D24" s="8" t="n"/>
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E24" s="8" t="n"/>
     </row>
     <row r="25" ht="20.25" customHeight="1" s="6">
@@ -795,7 +799,11 @@
         </is>
       </c>
       <c r="C25" s="8" t="n"/>
-      <c r="D25" s="8" t="n"/>
+      <c r="D25" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E25" s="8" t="n"/>
     </row>
     <row r="26" ht="20.25" customHeight="1" s="6">
@@ -805,7 +813,11 @@
         </is>
       </c>
       <c r="C26" s="8" t="n"/>
-      <c r="D26" s="8" t="n"/>
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E26" s="8" t="n"/>
     </row>
     <row r="27" ht="20.25" customHeight="1" s="6">
@@ -815,7 +827,11 @@
         </is>
       </c>
       <c r="C27" s="8" t="n"/>
-      <c r="D27" s="8" t="n"/>
+      <c r="D27" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E27" s="8" t="n"/>
     </row>
     <row r="28" ht="17.25" customHeight="1" s="6">
@@ -825,7 +841,11 @@
         </is>
       </c>
       <c r="C28" s="8" t="n"/>
-      <c r="D28" s="8" t="n"/>
+      <c r="D28" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E28" s="8" t="n"/>
     </row>
     <row r="29" ht="17.25" customHeight="1" s="6">

--- a/scripts_on_ubuntu/sync_swap_project/sync_swap_50.xlsx
+++ b/scripts_on_ubuntu/sync_swap_project/sync_swap_50.xlsx
@@ -523,7 +523,11 @@
         </is>
       </c>
       <c r="C2" s="8" t="n"/>
-      <c r="D2" s="8" t="n"/>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E2" s="8" t="n"/>
       <c r="F2" s="8" t="n"/>
       <c r="G2" s="8" t="inlineStr">
@@ -539,7 +543,11 @@
         </is>
       </c>
       <c r="C3" s="8" t="n"/>
-      <c r="D3" s="8" t="n"/>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E3" s="8" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="8" t="inlineStr">

--- a/scripts_on_ubuntu/sync_swap_project/sync_swap_50.xlsx
+++ b/scripts_on_ubuntu/sync_swap_project/sync_swap_50.xlsx
@@ -563,7 +563,11 @@
         </is>
       </c>
       <c r="C4" s="8" t="n"/>
-      <c r="D4" s="8" t="n"/>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E4" s="8" t="n"/>
       <c r="F4" s="8" t="n"/>
       <c r="G4" s="8" t="inlineStr">
@@ -579,7 +583,11 @@
         </is>
       </c>
       <c r="C5" s="8" t="n"/>
-      <c r="D5" s="8" t="n"/>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E5" s="8" t="n"/>
       <c r="G5" s="8" t="inlineStr">
         <is>

--- a/scripts_on_ubuntu/sync_swap_project/sync_swap_50.xlsx
+++ b/scripts_on_ubuntu/sync_swap_project/sync_swap_50.xlsx
@@ -529,7 +529,11 @@
         </is>
       </c>
       <c r="E2" s="8" t="n"/>
-      <c r="F2" s="8" t="n"/>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="G2" s="8" t="inlineStr">
         <is>
           <t>×</t>
@@ -549,7 +553,11 @@
         </is>
       </c>
       <c r="E3" s="8" t="n"/>
-      <c r="F3" s="8" t="n"/>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="G3" s="8" t="inlineStr">
         <is>
           <t>×</t>
@@ -569,7 +577,11 @@
         </is>
       </c>
       <c r="E4" s="8" t="n"/>
-      <c r="F4" s="8" t="n"/>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
           <t>×</t>
@@ -589,6 +601,11 @@
         </is>
       </c>
       <c r="E5" s="8" t="n"/>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
           <t>×</t>
@@ -604,6 +621,11 @@
       <c r="C6" s="8" t="n"/>
       <c r="D6" s="8" t="n"/>
       <c r="E6" s="8" t="n"/>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="G6" s="8" t="inlineStr">
         <is>
           <t>×</t>
@@ -619,6 +641,11 @@
       <c r="C7" s="8" t="n"/>
       <c r="D7" s="8" t="n"/>
       <c r="E7" s="8" t="n"/>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="G7" s="8" t="inlineStr">
         <is>
           <t>×</t>
@@ -634,6 +661,11 @@
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="8" t="n"/>
       <c r="E8" s="8" t="n"/>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="G8" s="8" t="inlineStr">
         <is>
           <t>×</t>
@@ -649,6 +681,11 @@
       <c r="C9" s="8" t="n"/>
       <c r="D9" s="8" t="n"/>
       <c r="E9" s="8" t="n"/>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="20.25" customHeight="1" s="6">
       <c r="A10" s="7" t="inlineStr">
@@ -659,6 +696,11 @@
       <c r="C10" s="8" t="n"/>
       <c r="D10" s="8" t="n"/>
       <c r="E10" s="8" t="n"/>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="20.25" customHeight="1" s="6">
       <c r="A11" s="7" t="inlineStr">
@@ -669,6 +711,11 @@
       <c r="C11" s="8" t="n"/>
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="20.25" customHeight="1" s="6">
       <c r="A12" s="7" t="inlineStr">
@@ -679,6 +726,11 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="20.25" customHeight="1" s="6">
       <c r="A13" s="7" t="inlineStr">
@@ -689,6 +741,11 @@
       <c r="C13" s="8" t="n"/>
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="20.25" customHeight="1" s="6">
       <c r="A14" s="7" t="inlineStr">
@@ -699,6 +756,11 @@
       <c r="C14" s="8" t="n"/>
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="20.25" customHeight="1" s="6">
       <c r="A15" s="7" t="inlineStr">
@@ -709,6 +771,11 @@
       <c r="C15" s="8" t="n"/>
       <c r="D15" s="8" t="n"/>
       <c r="E15" s="8" t="n"/>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="20.25" customHeight="1" s="6">
       <c r="A16" s="7" t="inlineStr">
@@ -719,6 +786,11 @@
       <c r="C16" s="8" t="n"/>
       <c r="D16" s="8" t="n"/>
       <c r="E16" s="8" t="n"/>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="20.25" customHeight="1" s="6">
       <c r="A17" s="7" t="inlineStr">
@@ -729,6 +801,11 @@
       <c r="C17" s="8" t="n"/>
       <c r="D17" s="8" t="n"/>
       <c r="E17" s="8" t="n"/>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="20.25" customHeight="1" s="6">
       <c r="A18" s="7" t="inlineStr">
@@ -739,6 +816,11 @@
       <c r="C18" s="8" t="n"/>
       <c r="D18" s="8" t="n"/>
       <c r="E18" s="8" t="n"/>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="20.25" customHeight="1" s="6">
       <c r="A19" s="7" t="inlineStr">
@@ -749,6 +831,11 @@
       <c r="C19" s="8" t="n"/>
       <c r="D19" s="8" t="n"/>
       <c r="E19" s="8" t="n"/>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="20.25" customHeight="1" s="6">
       <c r="A20" s="7" t="inlineStr">
@@ -759,6 +846,11 @@
       <c r="C20" s="8" t="n"/>
       <c r="D20" s="8" t="n"/>
       <c r="E20" s="8" t="n"/>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="20.25" customHeight="1" s="6">
       <c r="A21" s="7" t="inlineStr">
@@ -769,6 +861,11 @@
       <c r="C21" s="8" t="n"/>
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="20.25" customHeight="1" s="6">
       <c r="A22" s="7" t="inlineStr">
@@ -779,6 +876,11 @@
       <c r="C22" s="8" t="n"/>
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="20.25" customHeight="1" s="6">
       <c r="A23" s="7" t="inlineStr">
@@ -793,6 +895,11 @@
         </is>
       </c>
       <c r="E23" s="8" t="n"/>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="20.25" customHeight="1" s="6">
       <c r="A24" s="7" t="inlineStr">
@@ -807,6 +914,11 @@
         </is>
       </c>
       <c r="E24" s="8" t="n"/>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="20.25" customHeight="1" s="6">
       <c r="A25" s="7" t="inlineStr">
@@ -821,6 +933,11 @@
         </is>
       </c>
       <c r="E25" s="8" t="n"/>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="20.25" customHeight="1" s="6">
       <c r="A26" s="7" t="inlineStr">
@@ -835,6 +952,11 @@
         </is>
       </c>
       <c r="E26" s="8" t="n"/>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="20.25" customHeight="1" s="6">
       <c r="A27" s="7" t="inlineStr">
@@ -849,6 +971,11 @@
         </is>
       </c>
       <c r="E27" s="8" t="n"/>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="17.25" customHeight="1" s="6">
       <c r="A28" s="7" t="inlineStr">
@@ -863,6 +990,11 @@
         </is>
       </c>
       <c r="E28" s="8" t="n"/>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="17.25" customHeight="1" s="6">
       <c r="A29" s="7" t="inlineStr">
@@ -873,6 +1005,11 @@
       <c r="C29" s="8" t="n"/>
       <c r="D29" s="8" t="n"/>
       <c r="E29" s="8" t="n"/>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="17.25" customHeight="1" s="6">
       <c r="A30" s="7" t="inlineStr">
@@ -883,6 +1020,11 @@
       <c r="C30" s="8" t="n"/>
       <c r="D30" s="8" t="n"/>
       <c r="E30" s="8" t="n"/>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="17.25" customHeight="1" s="6">
       <c r="A31" s="7" t="inlineStr">
@@ -893,6 +1035,11 @@
       <c r="C31" s="8" t="n"/>
       <c r="D31" s="8" t="n"/>
       <c r="E31" s="8" t="n"/>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="17.25" customHeight="1" s="6">
       <c r="A32" s="7" t="inlineStr">
@@ -903,6 +1050,11 @@
       <c r="C32" s="8" t="n"/>
       <c r="D32" s="8" t="n"/>
       <c r="E32" s="8" t="n"/>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="17.25" customHeight="1" s="6">
       <c r="A33" s="7" t="inlineStr">
@@ -913,6 +1065,11 @@
       <c r="C33" s="8" t="n"/>
       <c r="D33" s="8" t="n"/>
       <c r="E33" s="8" t="n"/>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="17.25" customHeight="1" s="6">
       <c r="A34" s="7" t="inlineStr">
@@ -923,6 +1080,11 @@
       <c r="C34" s="8" t="n"/>
       <c r="D34" s="8" t="n"/>
       <c r="E34" s="8" t="n"/>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="17.25" customHeight="1" s="6">
       <c r="A35" s="7" t="inlineStr">
@@ -933,6 +1095,11 @@
       <c r="C35" s="8" t="n"/>
       <c r="D35" s="8" t="n"/>
       <c r="E35" s="8" t="n"/>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="17.25" customHeight="1" s="6">
       <c r="A36" s="7" t="inlineStr">
@@ -943,6 +1110,11 @@
       <c r="C36" s="8" t="n"/>
       <c r="D36" s="8" t="n"/>
       <c r="E36" s="8" t="n"/>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="17.25" customHeight="1" s="6">
       <c r="A37" s="7" t="inlineStr">
@@ -953,6 +1125,11 @@
       <c r="C37" s="8" t="n"/>
       <c r="D37" s="8" t="n"/>
       <c r="E37" s="8" t="n"/>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="17.25" customHeight="1" s="6">
       <c r="A38" s="7" t="inlineStr">
@@ -963,6 +1140,11 @@
       <c r="C38" s="8" t="n"/>
       <c r="D38" s="8" t="n"/>
       <c r="E38" s="8" t="n"/>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="17.25" customHeight="1" s="6">
       <c r="A39" s="7" t="inlineStr">
@@ -977,6 +1159,11 @@
         </is>
       </c>
       <c r="E39" s="8" t="n"/>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="17.25" customHeight="1" s="6">
       <c r="A40" s="7" t="inlineStr">
@@ -987,6 +1174,11 @@
       <c r="C40" s="8" t="n"/>
       <c r="D40" s="8" t="n"/>
       <c r="E40" s="8" t="n"/>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="6">
       <c r="A41" s="7" t="inlineStr">
@@ -997,6 +1189,11 @@
       <c r="C41" s="8" t="n"/>
       <c r="D41" s="8" t="n"/>
       <c r="E41" s="8" t="n"/>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="17.25" customHeight="1" s="6">
       <c r="A42" s="7" t="inlineStr">
@@ -1007,6 +1204,11 @@
       <c r="C42" s="8" t="n"/>
       <c r="D42" s="8" t="n"/>
       <c r="E42" s="8" t="n"/>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" s="6">
       <c r="A43" s="7" t="inlineStr">
@@ -1017,6 +1219,11 @@
       <c r="C43" s="8" t="n"/>
       <c r="D43" s="8" t="n"/>
       <c r="E43" s="8" t="n"/>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="17.25" customHeight="1" s="6">
       <c r="A44" s="7" t="inlineStr">
@@ -1027,6 +1234,11 @@
       <c r="C44" s="8" t="n"/>
       <c r="D44" s="8" t="n"/>
       <c r="E44" s="8" t="n"/>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="17.25" customHeight="1" s="6">
       <c r="A45" s="7" t="inlineStr">
@@ -1037,6 +1249,11 @@
       <c r="C45" s="8" t="n"/>
       <c r="D45" s="8" t="n"/>
       <c r="E45" s="8" t="n"/>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="17.25" customHeight="1" s="6">
       <c r="A46" s="7" t="inlineStr">
@@ -1047,6 +1264,11 @@
       <c r="C46" s="8" t="n"/>
       <c r="D46" s="8" t="n"/>
       <c r="E46" s="8" t="n"/>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="17.25" customHeight="1" s="6">
       <c r="A47" s="7" t="inlineStr">
@@ -1057,6 +1279,11 @@
       <c r="C47" s="8" t="n"/>
       <c r="D47" s="8" t="n"/>
       <c r="E47" s="8" t="n"/>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="17.25" customHeight="1" s="6">
       <c r="A48" s="7" t="inlineStr">
@@ -1067,6 +1294,11 @@
       <c r="C48" s="8" t="n"/>
       <c r="D48" s="8" t="n"/>
       <c r="E48" s="8" t="n"/>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="17.25" customHeight="1" s="6">
       <c r="A49" s="7" t="inlineStr">
@@ -1077,6 +1309,11 @@
       <c r="C49" s="8" t="n"/>
       <c r="D49" s="8" t="n"/>
       <c r="E49" s="8" t="n"/>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="17.25" customHeight="1" s="6">
       <c r="A50" s="7" t="inlineStr">
@@ -1087,6 +1324,11 @@
       <c r="C50" s="8" t="n"/>
       <c r="D50" s="8" t="n"/>
       <c r="E50" s="8" t="n"/>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="17.25" customHeight="1" s="6">
       <c r="A51" s="7" t="inlineStr">
@@ -1097,6 +1339,11 @@
       <c r="C51" s="8" t="n"/>
       <c r="D51" s="8" t="n"/>
       <c r="E51" s="8" t="n"/>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/scripts_on_ubuntu/sync_swap_project/sync_swap_50.xlsx
+++ b/scripts_on_ubuntu/sync_swap_project/sync_swap_50.xlsx
@@ -619,7 +619,11 @@
         </is>
       </c>
       <c r="C6" s="8" t="n"/>
-      <c r="D6" s="8" t="n"/>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E6" s="8" t="n"/>
       <c r="F6" s="5" t="inlineStr">
         <is>
@@ -639,7 +643,11 @@
         </is>
       </c>
       <c r="C7" s="8" t="n"/>
-      <c r="D7" s="8" t="n"/>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E7" s="8" t="n"/>
       <c r="F7" s="5" t="inlineStr">
         <is>
@@ -659,7 +667,11 @@
         </is>
       </c>
       <c r="C8" s="8" t="n"/>
-      <c r="D8" s="8" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E8" s="8" t="n"/>
       <c r="F8" s="5" t="inlineStr">
         <is>
@@ -679,7 +691,11 @@
         </is>
       </c>
       <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E9" s="8" t="n"/>
       <c r="F9" s="5" t="inlineStr">
         <is>
@@ -694,7 +710,11 @@
         </is>
       </c>
       <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="n"/>
       <c r="F10" s="5" t="inlineStr">
         <is>
@@ -709,7 +729,11 @@
         </is>
       </c>
       <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="5" t="inlineStr">
         <is>
@@ -724,7 +748,11 @@
         </is>
       </c>
       <c r="C12" s="8" t="n"/>
-      <c r="D12" s="8" t="n"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="5" t="inlineStr">
         <is>
@@ -739,7 +767,11 @@
         </is>
       </c>
       <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="5" t="inlineStr">
         <is>
@@ -754,7 +786,11 @@
         </is>
       </c>
       <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="5" t="inlineStr">
         <is>
@@ -769,7 +805,11 @@
         </is>
       </c>
       <c r="C15" s="8" t="n"/>
-      <c r="D15" s="8" t="n"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E15" s="8" t="n"/>
       <c r="F15" s="5" t="inlineStr">
         <is>
@@ -784,7 +824,11 @@
         </is>
       </c>
       <c r="C16" s="8" t="n"/>
-      <c r="D16" s="8" t="n"/>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E16" s="8" t="n"/>
       <c r="F16" s="5" t="inlineStr">
         <is>
@@ -799,7 +843,11 @@
         </is>
       </c>
       <c r="C17" s="8" t="n"/>
-      <c r="D17" s="8" t="n"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="n"/>
       <c r="F17" s="5" t="inlineStr">
         <is>
@@ -814,7 +862,11 @@
         </is>
       </c>
       <c r="C18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E18" s="8" t="n"/>
       <c r="F18" s="5" t="inlineStr">
         <is>
@@ -829,7 +881,11 @@
         </is>
       </c>
       <c r="C19" s="8" t="n"/>
-      <c r="D19" s="8" t="n"/>
+      <c r="D19" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="n"/>
       <c r="F19" s="5" t="inlineStr">
         <is>
@@ -844,7 +900,11 @@
         </is>
       </c>
       <c r="C20" s="8" t="n"/>
-      <c r="D20" s="8" t="n"/>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E20" s="8" t="n"/>
       <c r="F20" s="5" t="inlineStr">
         <is>
@@ -859,7 +919,11 @@
         </is>
       </c>
       <c r="C21" s="8" t="n"/>
-      <c r="D21" s="8" t="n"/>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="5" t="inlineStr">
         <is>
@@ -874,7 +938,11 @@
         </is>
       </c>
       <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="5" t="inlineStr">
         <is>
@@ -1003,7 +1071,11 @@
         </is>
       </c>
       <c r="C29" s="8" t="n"/>
-      <c r="D29" s="8" t="n"/>
+      <c r="D29" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E29" s="8" t="n"/>
       <c r="F29" s="5" t="inlineStr">
         <is>
@@ -1018,7 +1090,11 @@
         </is>
       </c>
       <c r="C30" s="8" t="n"/>
-      <c r="D30" s="8" t="n"/>
+      <c r="D30" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E30" s="8" t="n"/>
       <c r="F30" s="5" t="inlineStr">
         <is>
@@ -1033,7 +1109,11 @@
         </is>
       </c>
       <c r="C31" s="8" t="n"/>
-      <c r="D31" s="8" t="n"/>
+      <c r="D31" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E31" s="8" t="n"/>
       <c r="F31" s="5" t="inlineStr">
         <is>
@@ -1048,7 +1128,11 @@
         </is>
       </c>
       <c r="C32" s="8" t="n"/>
-      <c r="D32" s="8" t="n"/>
+      <c r="D32" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E32" s="8" t="n"/>
       <c r="F32" s="5" t="inlineStr">
         <is>
@@ -1063,7 +1147,11 @@
         </is>
       </c>
       <c r="C33" s="8" t="n"/>
-      <c r="D33" s="8" t="n"/>
+      <c r="D33" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E33" s="8" t="n"/>
       <c r="F33" s="5" t="inlineStr">
         <is>
@@ -1078,7 +1166,11 @@
         </is>
       </c>
       <c r="C34" s="8" t="n"/>
-      <c r="D34" s="8" t="n"/>
+      <c r="D34" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E34" s="8" t="n"/>
       <c r="F34" s="5" t="inlineStr">
         <is>
@@ -1093,7 +1185,11 @@
         </is>
       </c>
       <c r="C35" s="8" t="n"/>
-      <c r="D35" s="8" t="n"/>
+      <c r="D35" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E35" s="8" t="n"/>
       <c r="F35" s="5" t="inlineStr">
         <is>
@@ -1108,7 +1204,11 @@
         </is>
       </c>
       <c r="C36" s="8" t="n"/>
-      <c r="D36" s="8" t="n"/>
+      <c r="D36" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E36" s="8" t="n"/>
       <c r="F36" s="5" t="inlineStr">
         <is>
@@ -1123,7 +1223,11 @@
         </is>
       </c>
       <c r="C37" s="8" t="n"/>
-      <c r="D37" s="8" t="n"/>
+      <c r="D37" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E37" s="8" t="n"/>
       <c r="F37" s="5" t="inlineStr">
         <is>
@@ -1138,7 +1242,11 @@
         </is>
       </c>
       <c r="C38" s="8" t="n"/>
-      <c r="D38" s="8" t="n"/>
+      <c r="D38" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E38" s="8" t="n"/>
       <c r="F38" s="5" t="inlineStr">
         <is>
@@ -1172,7 +1280,11 @@
         </is>
       </c>
       <c r="C40" s="8" t="n"/>
-      <c r="D40" s="8" t="n"/>
+      <c r="D40" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E40" s="8" t="n"/>
       <c r="F40" s="5" t="inlineStr">
         <is>
@@ -1187,7 +1299,11 @@
         </is>
       </c>
       <c r="C41" s="8" t="n"/>
-      <c r="D41" s="8" t="n"/>
+      <c r="D41" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E41" s="8" t="n"/>
       <c r="F41" s="5" t="inlineStr">
         <is>
@@ -1202,7 +1318,11 @@
         </is>
       </c>
       <c r="C42" s="8" t="n"/>
-      <c r="D42" s="8" t="n"/>
+      <c r="D42" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E42" s="8" t="n"/>
       <c r="F42" s="5" t="inlineStr">
         <is>
@@ -1217,7 +1337,11 @@
         </is>
       </c>
       <c r="C43" s="8" t="n"/>
-      <c r="D43" s="8" t="n"/>
+      <c r="D43" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E43" s="8" t="n"/>
       <c r="F43" s="5" t="inlineStr">
         <is>
@@ -1232,7 +1356,11 @@
         </is>
       </c>
       <c r="C44" s="8" t="n"/>
-      <c r="D44" s="8" t="n"/>
+      <c r="D44" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E44" s="8" t="n"/>
       <c r="F44" s="5" t="inlineStr">
         <is>
@@ -1247,7 +1375,11 @@
         </is>
       </c>
       <c r="C45" s="8" t="n"/>
-      <c r="D45" s="8" t="n"/>
+      <c r="D45" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E45" s="8" t="n"/>
       <c r="F45" s="5" t="inlineStr">
         <is>
@@ -1262,7 +1394,11 @@
         </is>
       </c>
       <c r="C46" s="8" t="n"/>
-      <c r="D46" s="8" t="n"/>
+      <c r="D46" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E46" s="8" t="n"/>
       <c r="F46" s="5" t="inlineStr">
         <is>
@@ -1277,7 +1413,11 @@
         </is>
       </c>
       <c r="C47" s="8" t="n"/>
-      <c r="D47" s="8" t="n"/>
+      <c r="D47" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E47" s="8" t="n"/>
       <c r="F47" s="5" t="inlineStr">
         <is>
@@ -1292,7 +1432,11 @@
         </is>
       </c>
       <c r="C48" s="8" t="n"/>
-      <c r="D48" s="8" t="n"/>
+      <c r="D48" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E48" s="8" t="n"/>
       <c r="F48" s="5" t="inlineStr">
         <is>
@@ -1307,7 +1451,11 @@
         </is>
       </c>
       <c r="C49" s="8" t="n"/>
-      <c r="D49" s="8" t="n"/>
+      <c r="D49" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E49" s="8" t="n"/>
       <c r="F49" s="5" t="inlineStr">
         <is>
@@ -1322,7 +1470,11 @@
         </is>
       </c>
       <c r="C50" s="8" t="n"/>
-      <c r="D50" s="8" t="n"/>
+      <c r="D50" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E50" s="8" t="n"/>
       <c r="F50" s="5" t="inlineStr">
         <is>
@@ -1337,7 +1489,11 @@
         </is>
       </c>
       <c r="C51" s="8" t="n"/>
-      <c r="D51" s="8" t="n"/>
+      <c r="D51" s="8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E51" s="8" t="n"/>
       <c r="F51" s="5" t="inlineStr">
         <is>

--- a/scripts_on_ubuntu/sync_swap_project/sync_swap_50.xlsx
+++ b/scripts_on_ubuntu/sync_swap_project/sync_swap_50.xlsx
@@ -549,7 +549,7 @@
       <c r="C3" s="8" t="n"/>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E3" s="8" t="n"/>
@@ -573,7 +573,7 @@
       <c r="C4" s="8" t="n"/>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E4" s="8" t="n"/>
@@ -597,7 +597,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E5" s="8" t="n"/>
@@ -645,7 +645,7 @@
       <c r="C7" s="8" t="n"/>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E7" s="8" t="n"/>
@@ -669,7 +669,7 @@
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E8" s="8" t="n"/>
@@ -693,7 +693,7 @@
       <c r="C9" s="8" t="n"/>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E9" s="8" t="n"/>
@@ -712,7 +712,7 @@
       <c r="C10" s="8" t="n"/>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E10" s="8" t="n"/>
@@ -731,7 +731,7 @@
       <c r="C11" s="8" t="n"/>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E11" s="8" t="n"/>
@@ -750,7 +750,7 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E12" s="8" t="n"/>
@@ -769,7 +769,7 @@
       <c r="C13" s="8" t="n"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E13" s="8" t="n"/>
@@ -807,7 +807,7 @@
       <c r="C15" s="8" t="n"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E15" s="8" t="n"/>
@@ -921,7 +921,7 @@
       <c r="C21" s="8" t="n"/>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E21" s="8" t="n"/>
@@ -940,7 +940,7 @@
       <c r="C22" s="8" t="n"/>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E22" s="8" t="n"/>
@@ -959,7 +959,7 @@
       <c r="C23" s="8" t="n"/>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E23" s="8" t="n"/>
@@ -1035,7 +1035,7 @@
       <c r="C27" s="8" t="n"/>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E27" s="8" t="n"/>
@@ -1073,7 +1073,7 @@
       <c r="C29" s="8" t="n"/>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E29" s="8" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="C32" s="8" t="n"/>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E32" s="8" t="n"/>
@@ -1206,7 +1206,7 @@
       <c r="C36" s="8" t="n"/>
       <c r="D36" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E36" s="8" t="n"/>
@@ -1244,7 +1244,7 @@
       <c r="C38" s="8" t="n"/>
       <c r="D38" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E38" s="8" t="n"/>
@@ -1263,7 +1263,7 @@
       <c r="C39" s="8" t="n"/>
       <c r="D39" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E39" s="8" t="n"/>
@@ -1282,7 +1282,7 @@
       <c r="C40" s="8" t="n"/>
       <c r="D40" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E40" s="8" t="n"/>
@@ -1415,7 +1415,7 @@
       <c r="C47" s="8" t="n"/>
       <c r="D47" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E47" s="8" t="n"/>
@@ -1453,7 +1453,7 @@
       <c r="C49" s="8" t="n"/>
       <c r="D49" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E49" s="8" t="n"/>
